--- a/experiment_results/20201127_AGGREGATION_STDEV_NORMALIZATION1/Email/4wise/0.95_.xlsx
+++ b/experiment_results/20201127_AGGREGATION_STDEV_NORMALIZATION1/Email/4wise/0.95_.xlsx
@@ -468,16 +468,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -515,10 +515,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -633,19 +633,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -671,19 +671,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -798,19 +798,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -836,19 +836,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -963,19 +963,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1001,19 +1001,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -1128,19 +1128,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1166,19 +1166,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -1293,19 +1293,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1331,19 +1331,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -1467,10 +1467,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1496,19 +1496,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -1623,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -1632,7 +1632,7 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -1661,10 +1661,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
@@ -1699,19 +1699,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -1797,10 +1797,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1835,10 +1835,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -1953,19 +1953,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1991,19 +1991,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -2118,19 +2118,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2156,19 +2156,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -2283,19 +2283,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2321,19 +2321,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -2457,10 +2457,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2495,10 +2495,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -2622,10 +2622,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2660,10 +2660,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -2787,10 +2787,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2816,19 +2816,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -2943,19 +2943,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2981,19 +2981,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -3108,19 +3108,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3146,19 +3146,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -3282,10 +3282,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3320,10 +3320,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -3447,10 +3447,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3476,19 +3476,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -3603,19 +3603,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3641,19 +3641,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -3768,19 +3768,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3806,19 +3806,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -3933,19 +3933,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3971,19 +3971,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -4098,19 +4098,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4145,10 +4145,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -4263,19 +4263,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4301,19 +4301,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -4428,16 +4428,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -4475,10 +4475,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -4593,19 +4593,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4631,19 +4631,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -4758,7 +4758,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -4767,7 +4767,7 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -4796,10 +4796,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
@@ -4834,19 +4834,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -4932,10 +4932,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4970,10 +4970,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -5097,10 +5097,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -5135,10 +5135,10 @@
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -5262,10 +5262,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -5291,19 +5291,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>247</v>
